--- a/import.xlsx
+++ b/import.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SchoolSpace\CNPM\thuc_hanh\student_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01320B28-00A6-43CC-9211-9B3D8E345A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="3660" yWindow="2010" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>msv</t>
   </si>
@@ -116,9 +130,6 @@
     <t>0833477854</t>
   </si>
   <si>
-    <t>K65-CA-CLC-4</t>
-  </si>
-  <si>
     <t>19021248</t>
   </si>
   <si>
@@ -137,9 +148,6 @@
     <t>Lê Mạnh Cường</t>
   </si>
   <si>
-    <t>Thiếu tín chỉ</t>
-  </si>
-  <si>
     <t>19021477</t>
   </si>
   <si>
@@ -153,16 +161,25 @@
   </si>
   <si>
     <t>Cảnh báo học vụ</t>
+  </si>
+  <si>
+    <t>12A1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,9 +269,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,7 +341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,28 +514,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="2"/>
-    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="0.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>19021324</v>
       </c>
@@ -570,24 +587,25 @@
         <v>12</v>
       </c>
       <c r="G2" s="3">
-        <v>80</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3.2</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>8.1999999999999993</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>19021320</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4">
         <v>36964</v>
@@ -602,19 +620,20 @@
         <v>15</v>
       </c>
       <c r="G3" s="3">
-        <v>78</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3.1</v>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>8.1</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>19021235</v>
       </c>
@@ -634,19 +653,20 @@
         <v>21</v>
       </c>
       <c r="G4" s="3">
-        <v>80</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3.7</v>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>8.6999999999999993</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19021269</v>
       </c>
@@ -663,22 +683,23 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3">
-        <v>80</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2.9</v>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>7.9</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>19021275</v>
       </c>
@@ -698,19 +719,20 @@
         <v>27</v>
       </c>
       <c r="G6" s="3">
-        <v>50</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.6</v>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>6.6</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>19021306</v>
       </c>
@@ -730,24 +752,25 @@
         <v>27</v>
       </c>
       <c r="G7" s="3">
-        <v>82</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3.2</v>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>8.1999999999999993</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C8" s="4">
         <v>37023</v>
@@ -756,30 +779,31 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="3">
-        <v>40</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3.3</v>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>8.3000000000000007</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C9" s="4">
         <v>37219</v>
@@ -788,25 +812,27 @@
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>7.2</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="3">
-        <v>74</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="K9" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -816,24 +842,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
